--- a/doc/001_参考資料/003_尻尾ライントレース/尻尾ライントレースソースコード.xlsx
+++ b/doc/001_参考資料/003_尻尾ライントレース/尻尾ライントレースソースコード.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>v</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,16 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100 ～ -100まで格納可能</t>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -690,7 +700,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3623492" cy="459100"/>
+    <xdr:ext cx="4632102" cy="642484"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
@@ -699,7 +709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4143375" y="10067925"/>
-          <a:ext cx="3623492" cy="459100"/>
+          <a:ext cx="4632102" cy="642484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,7 +751,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今は収納されている</a:t>
+            <a:t>今は倒立のために収納されている</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -759,6 +769,17 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>だと思う</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲインがすでに効いているため、角度変更のみで尻尾走行として利用可能</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -766,16 +787,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -784,7 +805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="5143500"/>
+          <a:off x="8715375" y="5438775"/>
           <a:ext cx="371475" cy="5238750"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -870,6 +891,157 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>265553</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="7200900"/>
+          <a:ext cx="9180953" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16468725" y="11106150"/>
+          <a:ext cx="723900" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>94849</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>128334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267049" y="8357934"/>
+          <a:ext cx="10173101" cy="2814891"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1162,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:L65"/>
+  <dimension ref="B6:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1178,8 +1350,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L46" t="s">
+    <row r="42" spans="15:19" x14ac:dyDescent="0.15">
+      <c r="S42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="15:19" x14ac:dyDescent="0.15">
+      <c r="O48" t="s">
         <v>2</v>
       </c>
     </row>
